--- a/data/trans_camb/Q45B_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Dificultad-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.08997310270265432</v>
+        <v>-0.2737477144017424</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.080892565414383</v>
+        <v>-2.251683557387788</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.698694907924261</v>
+        <v>-1.858261377526456</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.858382318555654</v>
+        <v>-4.84543076101689</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.7666757667762454</v>
+        <v>-0.7934949505772976</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.445488288182408</v>
+        <v>-3.410575753038609</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.021397638555431</v>
+        <v>3.034331301963819</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4485972721022833</v>
+        <v>0.3514692915274762</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.500729248452171</v>
+        <v>2.38228150584289</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.303668576586903</v>
+        <v>-1.483120111998345</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.007904022563764</v>
+        <v>1.7841311440203</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.253214990317477</v>
+        <v>-1.226436916729058</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1023279754413031</v>
+        <v>-0.1462409105826805</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7899628249977064</v>
+        <v>-0.7990140353511788</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2590054633504713</v>
+        <v>-0.2845423927417874</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7178085196800243</v>
+        <v>-0.7331683771817998</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1609454609838031</v>
+        <v>-0.168570035191457</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7101322491454456</v>
+        <v>-0.6966665084211447</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.446665522879389</v>
+        <v>3.518646293907707</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6595452648299661</v>
+        <v>0.4246831403525408</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5827401976560191</v>
+        <v>0.5471784939181603</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.2895722485938377</v>
+        <v>-0.3247766197602265</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6464550459801842</v>
+        <v>0.5345666109793661</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3744645968095084</v>
+        <v>-0.3416757026699123</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.188025397889897</v>
+        <v>-0.9534424378217017</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.847414244176803</v>
+        <v>-1.894815820392</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.370565819656745</v>
+        <v>-2.312929829081872</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.184775962240667</v>
+        <v>-5.908491739313446</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.042865748858768</v>
+        <v>-1.048392543478381</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.551253064389235</v>
+        <v>-3.401409675475089</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.201542122261692</v>
+        <v>1.338241902681399</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1841190185276671</v>
+        <v>0.2894058958355603</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.136847042340377</v>
+        <v>2.056178028764992</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.097548102910613</v>
+        <v>-2.104921658710545</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.403904022814541</v>
+        <v>1.529024267314092</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.185404045257319</v>
+        <v>-1.104294846461995</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.501749330437357</v>
+        <v>-0.4495412293413867</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7805047185366017</v>
+        <v>-0.7951993720310381</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2803182616721829</v>
+        <v>-0.2768711295312697</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7271138466768143</v>
+        <v>-0.7071301033467753</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2200730389073872</v>
+        <v>-0.2126168576902114</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6897438907554927</v>
+        <v>-0.6709772656340967</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.039769605093465</v>
+        <v>1.182275820569503</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2357696922321882</v>
+        <v>0.3078285302569708</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3374980139939422</v>
+        <v>0.326171564465883</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.3312139656554113</v>
+        <v>-0.3245627279440291</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3751861423403992</v>
+        <v>0.389241957305092</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3003639732413608</v>
+        <v>-0.2887551645134517</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.517398561608003</v>
+        <v>-1.518064626272711</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.335418145408761</v>
+        <v>-2.42501014830454</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.66838283152377</v>
+        <v>-1.734996019439296</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.46043894209797</v>
+        <v>-5.490541128788755</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.9787283925795481</v>
+        <v>-1.091312003318927</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.311660597090309</v>
+        <v>-3.476920724865077</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.072020624335593</v>
+        <v>1.079799228451962</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.196577119583727</v>
+        <v>-0.3613068440882332</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.4534589647913</v>
+        <v>3.625828978244008</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.6963134539031147</v>
+        <v>-0.9614312480543896</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.918551761626571</v>
+        <v>2.065000763544379</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-1.033778787201866</v>
+        <v>-0.8104328852032457</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5725710193015722</v>
+        <v>-0.5667259257803831</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.86183055443523</v>
+        <v>-0.8723944905256529</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1774374117258655</v>
+        <v>-0.1864595922605333</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5707161135330527</v>
+        <v>-0.5865257740190499</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1762315461117082</v>
+        <v>-0.1976737711048004</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5976012065004292</v>
+        <v>-0.6131066977141002</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7359200135413778</v>
+        <v>0.7700873357281655</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.03773882740564906</v>
+        <v>-0.1259273729137179</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5031890113381894</v>
+        <v>0.5290767112100516</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.09361844125648607</v>
+        <v>-0.1343045497445901</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4325680152255085</v>
+        <v>0.4656852011504547</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2293141599578621</v>
+        <v>-0.1885265264856693</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.884436404777993</v>
+        <v>-1.973900692545788</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.014303584420006</v>
+        <v>-3.952093056389236</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.19714515937041</v>
+        <v>-10.30499188614191</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-15.27841991794625</v>
+        <v>-14.92622038240569</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.598085965904264</v>
+        <v>-4.45050652065024</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.610559936051922</v>
+        <v>-7.585549766099864</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.445846107171204</v>
+        <v>3.142540565600382</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.03674085272937604</v>
+        <v>-0.02571418587373279</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.479576150517033</v>
+        <v>-0.9261470771639687</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-6.51014640285638</v>
+        <v>-6.329650249401145</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6880225183874124</v>
+        <v>0.4820412150118589</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-3.237283102915157</v>
+        <v>-3.270684609540051</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4773864422000128</v>
+        <v>-0.4822267858096755</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.86700787559411</v>
+        <v>-0.8833567251120127</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5979202147921516</v>
+        <v>-0.5727826873755683</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.8198596459045547</v>
+        <v>-0.8125689553659533</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4748730815165093</v>
+        <v>-0.4613699633395001</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7799919484611884</v>
+        <v>-0.7729974702269489</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.151764962005791</v>
+        <v>1.901944585020961</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1941397495617258</v>
+        <v>0.1546598848829723</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.08865971112078566</v>
+        <v>-0.06501280097156739</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.528997418395162</v>
+        <v>-0.5256027778804432</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.09897363420661252</v>
+        <v>0.0674588658771792</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.4681289938605772</v>
+        <v>-0.4613609462753666</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.2198981552893499</v>
+        <v>-0.2816948223364824</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.729734413501</v>
+        <v>-1.736500151770412</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.669133265709397</v>
+        <v>-1.64350262210091</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.417231369703305</v>
+        <v>-5.547644924003111</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.7398061474719545</v>
+        <v>-0.698156339949617</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.377142860619996</v>
+        <v>-3.432505513034914</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.305077327751577</v>
+        <v>1.172623500224212</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.4857634066676337</v>
+        <v>-0.4840000095442878</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8455453605833767</v>
+        <v>0.9268652512033926</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-3.288676685526135</v>
+        <v>-3.187125851589537</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7981062348269655</v>
+        <v>0.7960193519516995</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-2.059770917801095</v>
+        <v>-2.121934336246786</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.09250902597682509</v>
+        <v>-0.1251936813849974</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6974890213117666</v>
+        <v>-0.7104667631584273</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.195811787185224</v>
+        <v>-0.1952385061812407</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.6367647151901473</v>
+        <v>-0.6368049439979472</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1387356601194229</v>
+        <v>-0.1304687511351604</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6305673075484288</v>
+        <v>-0.6197454968699555</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7832960242395939</v>
+        <v>0.6811144893068682</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.2747604550787653</v>
+        <v>-0.2835508918339046</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1162219620811024</v>
+        <v>0.1305811225247418</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.4517187330299243</v>
+        <v>-0.4424825816748765</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.171119438664402</v>
+        <v>0.1700709170034705</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.4523130132285079</v>
+        <v>-0.4546793836810307</v>
       </c>
     </row>
     <row r="34">
